--- a/dataUnbound.xlsx
+++ b/dataUnbound.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="3" r:id="rId1"/>
     <sheet name="columns" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="dataUnbound" localSheetId="0">data!$A$1:$C$225</definedName>
+    <definedName name="dataUnbound_1" localSheetId="0">data!$A$1:$C$225</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,16 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="dataUnbound.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="IntelSSD:Users:matthias:Documents:hibit.in:development:KinStruct:dataUnbound.csv" thousands=" " comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="IntelSSD:Users:matthias:Documents:hibit.in:development:KinStruct:dataUnbound.csv" thousands=" " comma="1">
+      <textFields count="3">
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="dataUnbound.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="IntelSSD:Users:matthias:Documents:hibit.in:development:KinStruct:dataUnbound.csv" thousands=" " comma="1">
       <textFields count="3">
         <textField type="text"/>
         <textField/>
@@ -769,7 +778,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dataUnbound" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dataUnbound_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1096,12 +1105,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1114,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0526804923999999</v>
+        <v>-60.314144134499998</v>
       </c>
       <c r="C2">
-        <v>1.2529456615400001</v>
+        <v>-71.7885055542</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1125,10 +1134,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.86386853456500001</v>
+        <v>-49.4960212708</v>
       </c>
       <c r="C3">
-        <v>3.0180351734199999</v>
+        <v>172.92066955600001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1136,10 +1145,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.88075339794200003</v>
+        <v>-50.4634475708</v>
       </c>
       <c r="C4">
-        <v>3.0452978610999999</v>
+        <v>174.48268127399999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1147,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.93762701749800004</v>
+        <v>-53.722068786599998</v>
       </c>
       <c r="C5">
-        <v>3.0659453868900002</v>
+        <v>-175.665771484</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1158,10 +1167,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.2367405891400001</v>
+        <v>-70.860015869099996</v>
       </c>
       <c r="C6">
-        <v>2.9855227470400001</v>
+        <v>171.05789184599999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1169,10 +1178,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.92336976528199999</v>
+        <v>-52.905185699500002</v>
       </c>
       <c r="C7">
-        <v>3.1338844299300002</v>
+        <v>-179.55809020999999</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1180,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.89455240964899996</v>
+        <v>51.254074096700002</v>
       </c>
       <c r="C8">
-        <v>3.0736684799199998</v>
+        <v>176.10820007300001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1191,10 +1200,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.89448875188800003</v>
+        <v>51.250431060799997</v>
       </c>
       <c r="C9">
-        <v>3.0931181907699998</v>
+        <v>177.222732544</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1202,10 +1211,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.828665733337</v>
+        <v>-47.479045867899998</v>
       </c>
       <c r="C10">
-        <v>1.0659971237200001</v>
+        <v>-61.077136993400003</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1213,10 +1222,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.1871032714800001</v>
+        <v>68.016014099100005</v>
       </c>
       <c r="C11">
-        <v>2.9198603630100002</v>
+        <v>-167.295684814</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1224,10 +1233,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.1712849140199999</v>
+        <v>-67.109680175799994</v>
       </c>
       <c r="C12">
-        <v>2.77415347099</v>
+        <v>158.94729614299999</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1235,10 +1244,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.51899713277799997</v>
+        <v>29.736349105799999</v>
       </c>
       <c r="C13">
-        <v>1.98401451111</v>
+        <v>-113.67565155</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1246,10 +1255,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.11901092529</v>
+        <v>-178.706375122</v>
       </c>
       <c r="C14">
-        <v>2.8845298290299999</v>
+        <v>-165.271392822</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1257,10 +1266,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.9962322711899998</v>
+        <v>171.67147827100001</v>
       </c>
       <c r="C15">
-        <v>2.8455300331100002</v>
+        <v>-163.036865234</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1268,10 +1277,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.9204287528999999</v>
+        <v>167.328201294</v>
       </c>
       <c r="C16">
-        <v>2.8177163600899999</v>
+        <v>-161.44322204599999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1279,10 +1288,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.1125462055200002</v>
+        <v>-178.33587646500001</v>
       </c>
       <c r="C17">
-        <v>2.7199711799599999</v>
+        <v>-155.84286499000001</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1290,10 +1299,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.15966880322</v>
+        <v>-66.444129943799993</v>
       </c>
       <c r="C18">
-        <v>1.2278239727</v>
+        <v>-70.349128723099994</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1301,10 +1310,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.99909621477099997</v>
+        <v>-57.243995666499998</v>
       </c>
       <c r="C19">
-        <v>1.37659204006</v>
+        <v>-78.872909545900001</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1312,10 +1321,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.0098023414599999</v>
+        <v>-57.857410430900003</v>
       </c>
       <c r="C20">
-        <v>1.3363437652600001</v>
+        <v>-76.566856384299996</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1323,10 +1332,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.827799320221</v>
+        <v>47.4294090271</v>
       </c>
       <c r="C21">
-        <v>2.45426297188</v>
+        <v>-140.61891174300001</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1334,10 +1343,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.01541030407</v>
+        <v>-58.178726196299998</v>
       </c>
       <c r="C22">
-        <v>3.1301429271700001</v>
+        <v>-179.343292236</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1345,10 +1354,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.0876829624200002</v>
+        <v>176.911178589</v>
       </c>
       <c r="C23">
-        <v>2.61993360519</v>
+        <v>-150.111129761</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1356,10 +1365,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.12310779095</v>
+        <v>-64.349334716800001</v>
       </c>
       <c r="C24">
-        <v>2.69328737259</v>
+        <v>154.31398010300001</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1367,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3.11615037918</v>
+        <v>178.542358398</v>
       </c>
       <c r="C25">
-        <v>3.0869209766400001</v>
+        <v>-176.86750793499999</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1378,10 +1387,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2.8992071151699998</v>
+        <v>166.11231994600001</v>
       </c>
       <c r="C26">
-        <v>3.0207059383399999</v>
+        <v>-173.073654175</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1389,10 +1398,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3.0554189682000001</v>
+        <v>-175.06271362300001</v>
       </c>
       <c r="C27">
-        <v>3.1205620765700002</v>
+        <v>-178.795043945</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1400,10 +1409,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.7321803569799998</v>
+        <v>-156.54241943400001</v>
       </c>
       <c r="C28">
-        <v>2.9617624282800001</v>
+        <v>-169.69648742699999</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1411,10 +1420,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.77954733371700002</v>
+        <v>44.664775848399998</v>
       </c>
       <c r="C29">
-        <v>3.1001372337299999</v>
+        <v>-177.624633789</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1422,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.80428802967099999</v>
+        <v>46.0823097229</v>
       </c>
       <c r="C30">
-        <v>3.11084771156</v>
+        <v>-178.23831176799999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1433,10 +1442,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.79806065559399997</v>
+        <v>45.725505828899998</v>
       </c>
       <c r="C31">
-        <v>3.0875947475399999</v>
+        <v>-176.90629577600001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1444,10 +1453,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.78880918026000002</v>
+        <v>45.195438385000003</v>
       </c>
       <c r="C32">
-        <v>3.10958576202</v>
+        <v>-178.16612243700001</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1455,10 +1464,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.79329746961600001</v>
+        <v>45.452594757100002</v>
       </c>
       <c r="C33">
-        <v>3.0992228984799999</v>
+        <v>-177.57247924800001</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1466,10 +1475,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.78210437297799995</v>
+        <v>44.811283111599998</v>
       </c>
       <c r="C34">
-        <v>3.0972406864200002</v>
+        <v>-177.458709717</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1477,10 +1486,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.1610524654400001</v>
+        <v>-66.523406982400004</v>
       </c>
       <c r="C35">
-        <v>2.9021263122600001</v>
+        <v>166.27960205100001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1488,10 +1497,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.2782648801800001</v>
+        <v>-73.239181518600006</v>
       </c>
       <c r="C36">
-        <v>2.9632678031899999</v>
+        <v>169.78273010300001</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1499,10 +1508,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.84335899352999999</v>
+        <v>48.3209152222</v>
       </c>
       <c r="C37">
-        <v>3.1080799102799999</v>
+        <v>-178.07969665499999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1510,10 +1519,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.25570785999</v>
+        <v>71.946769714400006</v>
       </c>
       <c r="C38">
-        <v>2.4384360313400002</v>
+        <v>-139.71209716800001</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1521,10 +1530,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.91533511877100004</v>
+        <v>52.444839477499997</v>
       </c>
       <c r="C39">
-        <v>2.5279388427699998</v>
+        <v>-144.840209961</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1532,10 +1541,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.3296290636100001</v>
+        <v>-76.182144164999997</v>
       </c>
       <c r="C40">
-        <v>3.0293560028100002</v>
+        <v>173.56924438499999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1543,10 +1552,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.98295563459400004</v>
+        <v>-56.319213867199998</v>
       </c>
       <c r="C41">
-        <v>2.4116470813799999</v>
+        <v>138.177200317</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1554,10 +1563,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.1460903883</v>
+        <v>-65.666145324699997</v>
       </c>
       <c r="C42">
-        <v>2.8754947185500002</v>
+        <v>164.75372314500001</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1565,10 +1574,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.73520404100400005</v>
+        <v>-42.124076843300003</v>
       </c>
       <c r="C43">
-        <v>2.92594671249</v>
+        <v>167.64437866200001</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1576,10 +1585,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.54847556352600002</v>
+        <v>31.4253253937</v>
       </c>
       <c r="C44">
-        <v>3.0766789913200001</v>
+        <v>176.28073120100001</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1587,10 +1596,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.08787357807</v>
+        <v>-62.330558776899998</v>
       </c>
       <c r="C45">
-        <v>2.7337708473200002</v>
+        <v>156.63352966299999</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1598,10 +1607,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.3130968809100001</v>
+        <v>-75.234909057600007</v>
       </c>
       <c r="C46">
-        <v>2.9651517867999999</v>
+        <v>169.89068603499999</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1609,10 +1618,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.0256309509299999</v>
+        <v>-58.7643241882</v>
       </c>
       <c r="C47">
-        <v>2.1399993896499998</v>
+        <v>122.61293029799999</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1620,10 +1629,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.87027162313499995</v>
+        <v>49.862895965600003</v>
       </c>
       <c r="C48">
-        <v>2.2820284366600001</v>
+        <v>-130.75059509299999</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1631,10 +1640,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.0085445642499999</v>
+        <v>-57.785346984900002</v>
       </c>
       <c r="C49">
-        <v>2.22723484039</v>
+        <v>127.611152649</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1642,10 +1651,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1.01061809063</v>
+        <v>-57.904151916499998</v>
       </c>
       <c r="C50">
-        <v>2.32261800766</v>
+        <v>133.07620239299999</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1653,10 +1662,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.72152924537700003</v>
+        <v>-41.340572357200003</v>
       </c>
       <c r="C51">
-        <v>2.7903480529800002</v>
+        <v>159.875167847</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1664,10 +1673,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1.14818537235</v>
+        <v>-65.7861785889</v>
       </c>
       <c r="C52">
-        <v>2.8957924842799998</v>
+        <v>165.91668701200001</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1675,10 +1684,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.1131459474600001</v>
+        <v>-63.778556823700001</v>
       </c>
       <c r="C53">
-        <v>2.6387267112699999</v>
+        <v>151.18791198700001</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1686,10 +1695,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.96468120813400005</v>
+        <v>-55.272167205800002</v>
       </c>
       <c r="C54">
-        <v>3.05946612358</v>
+        <v>-175.294464111</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1697,10 +1706,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.48249402642299999</v>
+        <v>27.6448802948</v>
       </c>
       <c r="C55">
-        <v>2.9167649745899999</v>
+        <v>167.11830139200001</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1708,10 +1717,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1.8640574216800001</v>
+        <v>-106.80261993400001</v>
       </c>
       <c r="C56">
-        <v>2.9037644863100001</v>
+        <v>166.37345886200001</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1719,10 +1728,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>3.9736211299900001E-2</v>
+        <v>2.2765808105500001</v>
       </c>
       <c r="C57">
-        <v>2.0022158622699999</v>
+        <v>114.718505859</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1730,10 +1739,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1.05347704887</v>
+        <v>-60.359786987299998</v>
       </c>
       <c r="C58">
-        <v>2.6776840686800001</v>
+        <v>-153.419998169</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1741,10 +1750,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.38803350925</v>
+        <v>-79.528457641599999</v>
       </c>
       <c r="C59">
-        <v>2.7721219062800002</v>
+        <v>158.83088684099999</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1752,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.96001547575000001</v>
+        <v>-55.004833221399998</v>
       </c>
       <c r="C60">
-        <v>3.09478712082</v>
+        <v>177.318237305</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1763,10 +1772,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1.0199964046500001</v>
+        <v>-58.441490173299997</v>
       </c>
       <c r="C61">
-        <v>3.0441257953599998</v>
+        <v>174.41558837900001</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1774,10 +1783,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.06582903862</v>
+        <v>-61.067497253399999</v>
       </c>
       <c r="C62">
-        <v>2.7995383739499999</v>
+        <v>160.401733398</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1785,10 +1794,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.97643566131600001</v>
+        <v>-55.945640564000001</v>
       </c>
       <c r="C63">
-        <v>2.9176559448199999</v>
+        <v>167.16940307600001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1796,10 +1805,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1.0020244121599999</v>
+        <v>-57.411777496299997</v>
       </c>
       <c r="C64">
-        <v>2.7824683189399999</v>
+        <v>159.42369079599999</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1807,10 +1816,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.95882266759900003</v>
+        <v>-54.936489105200003</v>
       </c>
       <c r="C65">
-        <v>2.6558682918500001</v>
+        <v>152.170043945</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1818,10 +1827,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1.04810845852</v>
+        <v>-60.052192687999998</v>
       </c>
       <c r="C66">
-        <v>2.9500381946599998</v>
+        <v>169.024734497</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1829,10 +1838,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1.0754064321500001</v>
+        <v>-61.616241455100003</v>
       </c>
       <c r="C67">
-        <v>2.8510143756900002</v>
+        <v>163.351104736</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1840,10 +1849,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1.2003953456900001</v>
+        <v>-68.777595520000006</v>
       </c>
       <c r="C68">
-        <v>2.7181470394099998</v>
+        <v>155.738357544</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1851,10 +1860,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1.0187983512900001</v>
+        <v>-58.372844696000001</v>
       </c>
       <c r="C69">
-        <v>2.8114297389999998</v>
+        <v>161.08306884800001</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1862,10 +1871,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1.1031806469000001</v>
+        <v>-63.207595825200002</v>
       </c>
       <c r="C70">
-        <v>2.7412757873500002</v>
+        <v>157.06353759800001</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1873,10 +1882,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1.40245985985</v>
+        <v>-80.355033874499995</v>
       </c>
       <c r="C71">
-        <v>2.9660942554499998</v>
+        <v>169.94467163100001</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1884,10 +1893,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1.28020262718</v>
+        <v>73.350204467799998</v>
       </c>
       <c r="C72">
-        <v>2.6315484046900002</v>
+        <v>-150.776611328</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1895,10 +1904,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.976651549339</v>
+        <v>55.958011627200001</v>
       </c>
       <c r="C73">
-        <v>2.9038569927200002</v>
+        <v>-166.37876892099999</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1906,10 +1915,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1.34818470478</v>
+        <v>77.245285034199995</v>
       </c>
       <c r="C74">
-        <v>2.6797952652000001</v>
+        <v>-153.54095459000001</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1917,10 +1926,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1.06129288673</v>
+        <v>60.807601928700002</v>
       </c>
       <c r="C75">
-        <v>2.95301175117</v>
+        <v>-169.19512939500001</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1928,10 +1937,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1.1932127475700001</v>
+        <v>68.366058349599996</v>
       </c>
       <c r="C76">
-        <v>2.58254337311</v>
+        <v>-147.968841553</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1939,10 +1948,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.4890772104300001</v>
+        <v>85.317840576199998</v>
       </c>
       <c r="C77">
-        <v>2.93880057335</v>
+        <v>-168.38087463400001</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1950,10 +1959,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.82342869043400002</v>
+        <v>47.178993225100001</v>
       </c>
       <c r="C78">
-        <v>2.7895078659100001</v>
+        <v>-159.827026367</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1961,10 +1970,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1.2034802436800001</v>
+        <v>68.954338073700001</v>
       </c>
       <c r="C79">
-        <v>3.0146989822400001</v>
+        <v>-172.72958374000001</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1972,10 +1981,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1.1882796287499999</v>
+        <v>68.083404540999993</v>
       </c>
       <c r="C80">
-        <v>2.5577969551100002</v>
+        <v>-146.550979614</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1983,10 +1992,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.86800646781900004</v>
+        <v>-49.733112335199998</v>
       </c>
       <c r="C81">
-        <v>0.83009254932400001</v>
+        <v>-47.560798644999998</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1994,10 +2003,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.13254065811599999</v>
+        <v>-7.5939869880700002</v>
       </c>
       <c r="C82">
-        <v>2.6216418743099998</v>
+        <v>150.20903015100001</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2005,10 +2014,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1.3055679798099999</v>
+        <v>74.803535461400003</v>
       </c>
       <c r="C83">
-        <v>2.7909138202700001</v>
+        <v>-159.907592773</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2016,10 +2025,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.44482651352899999</v>
+        <v>-25.486680984500001</v>
       </c>
       <c r="C84">
-        <v>1.63902533054</v>
+        <v>-93.909233093300003</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2027,10 +2036,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1.2377294301999999</v>
+        <v>-70.916671752900001</v>
       </c>
       <c r="C85">
-        <v>2.9171268939999999</v>
+        <v>167.13908386200001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2038,10 +2047,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1.0385588407499999</v>
+        <v>-59.505031585700003</v>
       </c>
       <c r="C86">
-        <v>2.7122333049799998</v>
+        <v>155.39952087399999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2049,10 +2058,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.76609271764800002</v>
+        <v>-43.8938789368</v>
       </c>
       <c r="C87">
-        <v>1.1146100759499999</v>
+        <v>-63.862453460700003</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2060,10 +2069,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.71933233737900004</v>
+        <v>-41.214706420900001</v>
       </c>
       <c r="C88">
-        <v>1.14449048042</v>
+        <v>-65.574470520000006</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2071,10 +2080,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1.1107289791099999</v>
+        <v>-63.640083312999998</v>
       </c>
       <c r="C89">
-        <v>3.06364989281</v>
+        <v>175.53419494600001</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2082,10 +2091,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.85133880376799997</v>
+        <v>-48.778118133500001</v>
       </c>
       <c r="C90">
-        <v>1.3222028017</v>
+        <v>-75.756629943799993</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2093,10 +2102,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.82840090990100002</v>
+        <v>-47.463871002200001</v>
       </c>
       <c r="C91">
-        <v>1.66787838936</v>
+        <v>-95.562393188499996</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2104,10 +2113,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.963837623596</v>
+        <v>-55.223823547400002</v>
       </c>
       <c r="C92">
-        <v>1.2576386928600001</v>
+        <v>-72.057388305700002</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2115,10 +2124,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.3648093938800001</v>
+        <v>-78.197814941399997</v>
       </c>
       <c r="C93">
-        <v>2.7588765621200002</v>
+        <v>-158.071975708</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2126,10 +2135,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1.36403715611</v>
+        <v>-78.153572082500006</v>
       </c>
       <c r="C94">
-        <v>2.7657928466800001</v>
+        <v>-158.46824645999999</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2137,10 +2146,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.95244079828299999</v>
+        <v>-54.570838928199997</v>
       </c>
       <c r="C95">
-        <v>2.7428917884800001</v>
+        <v>157.15612793</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2148,10 +2157,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.3219944238700001</v>
+        <v>-75.7446975708</v>
       </c>
       <c r="C96">
-        <v>2.8514409065200002</v>
+        <v>163.37554931599999</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2159,10 +2168,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.1784096956300001</v>
+        <v>-67.517898559599999</v>
       </c>
       <c r="C97">
-        <v>3.0645503997799999</v>
+        <v>175.585845947</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2170,10 +2179,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1.2584513425799999</v>
+        <v>-72.103950500500005</v>
       </c>
       <c r="C98">
-        <v>2.87082982063</v>
+        <v>164.486450195</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2181,10 +2190,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.84939813613899995</v>
+        <v>48.666927337600001</v>
       </c>
       <c r="C99">
-        <v>2.5769321918500001</v>
+        <v>-147.647338867</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2192,10 +2201,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.93349289894099996</v>
+        <v>-53.485195159900002</v>
       </c>
       <c r="C100">
-        <v>1.8681981563600001</v>
+        <v>107.039878845</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2203,10 +2212,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.05230665207</v>
+        <v>-60.292728424099998</v>
       </c>
       <c r="C101">
-        <v>2.87131404877</v>
+        <v>164.51419067399999</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2214,10 +2223,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.95931929349900003</v>
+        <v>-54.964946746800003</v>
       </c>
       <c r="C102">
-        <v>1.0260283947</v>
+        <v>-58.787097930900003</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2225,10 +2234,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.87255626916899998</v>
+        <v>-49.993797302200001</v>
       </c>
       <c r="C103">
-        <v>1.1504369974099999</v>
+        <v>-65.915191650400004</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2236,10 +2245,10 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.91921442747100002</v>
+        <v>-52.667095184300003</v>
       </c>
       <c r="C104">
-        <v>1.18665516376</v>
+        <v>-67.990341186500004</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2247,10 +2256,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.86523765325500002</v>
+        <v>-49.574470519999998</v>
       </c>
       <c r="C105">
-        <v>1.1944589614900001</v>
+        <v>-68.4374542236</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2258,10 +2267,10 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1.1373394727699999</v>
+        <v>-65.164749145499997</v>
       </c>
       <c r="C106">
-        <v>0.91228669881799995</v>
+        <v>-52.270175933799997</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2269,10 +2278,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.00679540634</v>
+        <v>-57.6851272583</v>
       </c>
       <c r="C107">
-        <v>1.0541942119600001</v>
+        <v>-60.400878906199999</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2280,10 +2289,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1.27438342571</v>
+        <v>-73.016792297400002</v>
       </c>
       <c r="C108">
-        <v>2.6146216392500001</v>
+        <v>149.80677795400001</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2291,10 +2300,10 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.83539962768599996</v>
+        <v>-47.864871978799997</v>
       </c>
       <c r="C109">
-        <v>1.2163432836500001</v>
+        <v>-69.691337585400007</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2302,10 +2311,10 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.95361381769200004</v>
+        <v>-54.6380462646</v>
       </c>
       <c r="C110">
-        <v>1.1723979711500001</v>
+        <v>-67.1734542847</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2313,10 +2322,10 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.02861225605</v>
+        <v>-58.935142517099997</v>
       </c>
       <c r="C111">
-        <v>1.1342343092</v>
+        <v>-64.986846923800002</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2324,10 +2333,10 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1.09641289711</v>
+        <v>-62.819831848100002</v>
       </c>
       <c r="C112">
-        <v>1.28282988071</v>
+        <v>-73.500740051299999</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2335,10 +2344,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.88989859819399997</v>
+        <v>-50.987430572500003</v>
       </c>
       <c r="C113">
-        <v>2.99541568756</v>
+        <v>171.62469482399999</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2346,10 +2355,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1.02062761784</v>
+        <v>-58.477653503399999</v>
       </c>
       <c r="C114">
-        <v>2.60160493851</v>
+        <v>149.06098938</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2357,10 +2366,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1.0046045780199999</v>
+        <v>57.559600830100003</v>
       </c>
       <c r="C115">
-        <v>3.1386272907300001</v>
+        <v>179.82981872600001</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2368,10 +2377,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1.13782167435</v>
+        <v>65.192375183099998</v>
       </c>
       <c r="C116">
-        <v>3.13859033585</v>
+        <v>-179.82867431599999</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2379,10 +2388,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.27667164803</v>
+        <v>73.147895813000005</v>
       </c>
       <c r="C117">
-        <v>2.7437448501600001</v>
+        <v>-157.205001831</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2390,10 +2399,10 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1.1398152113</v>
+        <v>65.3065948486</v>
       </c>
       <c r="C118">
-        <v>3.00320720673</v>
+        <v>-172.07115173299999</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2401,10 +2410,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1.11535310745</v>
+        <v>63.905025482200003</v>
       </c>
       <c r="C119">
-        <v>2.9798104763</v>
+        <v>-170.730545044</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2412,10 +2421,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.0877817869199999</v>
+        <v>62.325298309300003</v>
       </c>
       <c r="C120">
-        <v>2.99083590508</v>
+        <v>-171.36227417000001</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2423,10 +2432,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.77055251598399999</v>
+        <v>44.149402618400003</v>
       </c>
       <c r="C121">
-        <v>2.6284189224199999</v>
+        <v>-150.59730529800001</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2434,10 +2443,10 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.0554195642499999</v>
+        <v>60.471088409399997</v>
       </c>
       <c r="C122">
-        <v>2.6601765155799999</v>
+        <v>-152.416870117</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2445,10 +2454,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.93988734483699998</v>
+        <v>-53.851573944099997</v>
       </c>
       <c r="C123">
-        <v>1.44262778759</v>
+        <v>-82.656486511200001</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2456,10 +2465,10 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.0941331386599999</v>
+        <v>-62.689205169700003</v>
       </c>
       <c r="C124">
-        <v>1.0614700317400001</v>
+        <v>-60.817745208700003</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2467,10 +2476,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1.1410918235800001</v>
+        <v>-65.379753112800003</v>
       </c>
       <c r="C125">
-        <v>2.97285342216</v>
+        <v>170.331954956</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2478,10 +2487,10 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.68494963645899998</v>
+        <v>-39.244724273700001</v>
       </c>
       <c r="C126">
-        <v>1.45609545708</v>
+        <v>-83.428115844700002</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2489,10 +2498,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1.07648086548</v>
+        <v>-61.677810668900001</v>
       </c>
       <c r="C127">
-        <v>2.86819291115</v>
+        <v>164.33534240700001</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2500,10 +2509,10 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.95752048492399999</v>
+        <v>-54.8618850708</v>
       </c>
       <c r="C128">
-        <v>0.96262800693499995</v>
+        <v>-55.154525756799998</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2511,10 +2520,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.91869235038800001</v>
+        <v>-52.637191772500003</v>
       </c>
       <c r="C129">
-        <v>0.96210080385200003</v>
+        <v>-55.124317169199998</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2522,10 +2531,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.93250626325599995</v>
+        <v>-53.428668975800001</v>
       </c>
       <c r="C130">
-        <v>1.0961332321199999</v>
+        <v>-62.8038063049</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2533,10 +2542,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.84604108333600003</v>
+        <v>-48.474582672099999</v>
       </c>
       <c r="C131">
-        <v>0.73889774084100002</v>
+        <v>-42.335720062299998</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2544,10 +2553,10 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.88396239280699995</v>
+        <v>-50.647312164299997</v>
       </c>
       <c r="C132">
-        <v>1.17646980286</v>
+        <v>-67.406753539999997</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2555,10 +2564,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.98751115799</v>
+        <v>-56.580223083500002</v>
       </c>
       <c r="C133">
-        <v>0.83540779352200001</v>
+        <v>-47.865345001199998</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2566,10 +2575,10 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1.6032575368899999</v>
+        <v>-91.859893798800002</v>
       </c>
       <c r="C134">
-        <v>2.4909315109299999</v>
+        <v>142.719848633</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2577,10 +2586,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.87737995386099998</v>
+        <v>-50.270164489700001</v>
       </c>
       <c r="C135">
-        <v>1.2406111955600001</v>
+        <v>-71.081787109399997</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2588,10 +2597,10 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.882420539856</v>
+        <v>-50.5589675903</v>
       </c>
       <c r="C136">
-        <v>1.23839998245</v>
+        <v>-70.955093383800005</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2599,10 +2608,10 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.96619307994799997</v>
+        <v>-55.358783721899997</v>
       </c>
       <c r="C137">
-        <v>1.14827406406</v>
+        <v>-65.791259765600003</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2610,10 +2619,10 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1.03461325169</v>
+        <v>-59.278980255100002</v>
       </c>
       <c r="C138">
-        <v>1.00664556026</v>
+        <v>-57.676540374799998</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2621,10 +2630,10 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.80606353282900001</v>
+        <v>-46.184040069600002</v>
       </c>
       <c r="C139">
-        <v>2.81722927094</v>
+        <v>161.41534423799999</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2632,10 +2641,10 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.918297350407</v>
+        <v>-52.614570617699997</v>
       </c>
       <c r="C140">
-        <v>2.7098727226300001</v>
+        <v>155.26425170900001</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2643,10 +2652,10 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1.3128414154100001</v>
+        <v>-75.220268249499995</v>
       </c>
       <c r="C141">
-        <v>2.8008484840399999</v>
+        <v>160.476806641</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2654,10 +2663,10 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1.13094294071</v>
+        <v>-64.798255920399995</v>
       </c>
       <c r="C142">
-        <v>2.8460474014299999</v>
+        <v>163.066497803</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2665,10 +2674,10 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1.3919092416800001</v>
+        <v>79.750526428200004</v>
       </c>
       <c r="C143">
-        <v>2.6879570484199999</v>
+        <v>-154.008575439</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2676,10 +2685,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.95778340101199999</v>
+        <v>-54.876937866200002</v>
       </c>
       <c r="C144">
-        <v>3.0014107227300002</v>
+        <v>-171.968185425</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2687,10 +2696,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1.16228663921</v>
+        <v>-66.594116210899998</v>
       </c>
       <c r="C145">
-        <v>2.86729001999</v>
+        <v>164.28361511200001</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2698,10 +2707,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.97317612171199996</v>
+        <v>-55.758892059300003</v>
       </c>
       <c r="C146">
-        <v>3.0188751220699999</v>
+        <v>172.96881103499999</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2709,10 +2718,10 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>1.18191730976</v>
+        <v>-67.718879699699997</v>
       </c>
       <c r="C147">
-        <v>2.8599557876600001</v>
+        <v>163.86340332</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2720,10 +2729,10 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.899410545826</v>
+        <v>51.532424926799997</v>
       </c>
       <c r="C148">
-        <v>1.9777933359099999</v>
+        <v>113.319213867</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2731,10 +2740,10 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.83140760660199997</v>
+        <v>47.636142730700001</v>
       </c>
       <c r="C149">
-        <v>2.0984513759599999</v>
+        <v>120.23240661600001</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2742,10 +2751,10 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.162104651332</v>
+        <v>9.2878732681299994</v>
       </c>
       <c r="C150">
-        <v>1.2629112005200001</v>
+        <v>72.359481811500004</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2753,10 +2762,10 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.28598725795699997</v>
+        <v>16.385875701900002</v>
       </c>
       <c r="C151">
-        <v>1.22276079655</v>
+        <v>70.059036254899993</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2764,10 +2773,10 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.38971766829499999</v>
+        <v>-22.329170227100001</v>
       </c>
       <c r="C152">
-        <v>2.9871871471400002</v>
+        <v>-171.153198242</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2775,10 +2784,10 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.88908058404900003</v>
+        <v>50.940563201899998</v>
       </c>
       <c r="C153">
-        <v>2.0409100055699998</v>
+        <v>116.93553161600001</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2786,10 +2795,10 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.79899150133100005</v>
+        <v>45.778842926000003</v>
       </c>
       <c r="C154">
-        <v>1.97441339493</v>
+        <v>113.125556946</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2797,10 +2806,10 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.89857256412499997</v>
+        <v>51.4844207764</v>
       </c>
       <c r="C155">
-        <v>1.95518040657</v>
+        <v>112.02358245800001</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2808,10 +2817,10 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1.0399270057700001</v>
+        <v>59.583419799799998</v>
       </c>
       <c r="C156">
-        <v>1.9035849571200001</v>
+        <v>109.06738281200001</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2819,10 +2828,10 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7.1893811225899995E-2</v>
+        <v>4.1191310882599996</v>
       </c>
       <c r="C157">
-        <v>3.0650563240099999</v>
+        <v>175.61479187</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2830,10 +2839,10 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.69912576675399996</v>
+        <v>40.056961059599999</v>
       </c>
       <c r="C158">
-        <v>3.12395143509</v>
+        <v>178.98934936500001</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2841,10 +2850,10 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1.07523405552</v>
+        <v>61.606365203899998</v>
       </c>
       <c r="C159">
-        <v>1.8881396055199999</v>
+        <v>108.18242645300001</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2852,10 +2861,10 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.52416020631799998</v>
+        <v>-30.032163619999999</v>
       </c>
       <c r="C160">
-        <v>3.10165309906</v>
+        <v>177.711669922</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2863,10 +2872,10 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.822440087795</v>
+        <v>47.122344970699999</v>
       </c>
       <c r="C161">
-        <v>2.0972588062300002</v>
+        <v>120.16407775899999</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2874,10 +2883,10 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.62739539146400003</v>
+        <v>35.947097778299998</v>
       </c>
       <c r="C162">
-        <v>3.0230073928799999</v>
+        <v>173.20562744099999</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2885,10 +2894,10 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.73179692029999999</v>
+        <v>41.928874969500001</v>
       </c>
       <c r="C163">
-        <v>3.0937058925600001</v>
+        <v>-177.25619506800001</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2896,10 +2905,10 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.46306613087699999</v>
+        <v>-26.531738281199999</v>
       </c>
       <c r="C164">
-        <v>3.1216433048200001</v>
+        <v>178.85704040499999</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2907,10 +2916,10 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.81772202253299997</v>
+        <v>-46.852024078399999</v>
       </c>
       <c r="C165">
-        <v>2.84658741951</v>
+        <v>163.09742736800001</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2918,10 +2927,10 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>3.4569103270799997E-2</v>
+        <v>-1.9807051420199999</v>
       </c>
       <c r="C166">
-        <v>3.0801050662999998</v>
+        <v>176.47691345199999</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2929,10 +2938,10 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.72533106803900005</v>
+        <v>41.5584106445</v>
       </c>
       <c r="C167">
-        <v>2.08848261833</v>
+        <v>119.661239624</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2940,10 +2949,10 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1.0113184452099999</v>
+        <v>57.944278717000003</v>
       </c>
       <c r="C168">
-        <v>2.9472677707699999</v>
+        <v>-168.865997314</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2951,10 +2960,10 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.92210608720800002</v>
+        <v>52.832778930700002</v>
       </c>
       <c r="C169">
-        <v>3.0394077301000002</v>
+        <v>-174.145263672</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2962,10 +2971,10 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.84013402461999998</v>
+        <v>48.136127471899997</v>
       </c>
       <c r="C170">
-        <v>2.86221122742</v>
+        <v>-163.992630005</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2973,10 +2982,10 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.825276374817</v>
+        <v>47.284851074199999</v>
       </c>
       <c r="C171">
-        <v>2.4754445552800002</v>
+        <v>141.832519531</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2984,10 +2993,10 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1.0061180591600001</v>
+        <v>-57.646320342999999</v>
       </c>
       <c r="C172">
-        <v>1.4745098352399999</v>
+        <v>84.483184814500007</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2995,10 +3004,10 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.98057341575599999</v>
+        <v>56.182723998999997</v>
       </c>
       <c r="C173">
-        <v>2.9021575450900001</v>
+        <v>-166.281341553</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3006,10 +3015,10 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1.0675774812700001</v>
+        <v>-61.167678832999997</v>
       </c>
       <c r="C174">
-        <v>3.0508482456200001</v>
+        <v>-174.80064392099999</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3017,10 +3026,10 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1.07522845268</v>
+        <v>-61.606044769299999</v>
       </c>
       <c r="C175">
-        <v>2.9715223312400001</v>
+        <v>170.25572204599999</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3028,10 +3037,10 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.965117454529</v>
+        <v>55.297157287600001</v>
       </c>
       <c r="C176">
-        <v>3.10750055313</v>
+        <v>-178.04655456500001</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3039,10 +3048,10 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1.0340414047199999</v>
+        <v>-59.246208190899999</v>
       </c>
       <c r="C177">
-        <v>3.07807803154</v>
+        <v>176.36073303200001</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3050,10 +3059,10 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.91992998123199998</v>
+        <v>-52.708106994600001</v>
       </c>
       <c r="C178">
-        <v>2.97695279121</v>
+        <v>-170.56680297899999</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3061,10 +3070,10 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>1.1140910387</v>
+        <v>63.832714080800002</v>
       </c>
       <c r="C179">
-        <v>3.0531334876999998</v>
+        <v>-174.931716919</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3072,10 +3081,10 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.92698878049900002</v>
+        <v>53.112548828100003</v>
       </c>
       <c r="C180">
-        <v>2.92633748055</v>
+        <v>167.666778564</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3083,10 +3092,10 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.95290875434900002</v>
+        <v>54.597644805900003</v>
       </c>
       <c r="C181">
-        <v>2.8835463523899998</v>
+        <v>-165.21505737300001</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3094,10 +3103,10 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>1.0376838445700001</v>
+        <v>59.454906463599997</v>
       </c>
       <c r="C182">
-        <v>2.9301571846000001</v>
+        <v>-167.885665894</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3105,10 +3114,10 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>1.13044440746</v>
+        <v>64.769691467300007</v>
       </c>
       <c r="C183">
-        <v>2.80596542358</v>
+        <v>-160.769973755</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3116,10 +3125,10 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1.01093113422</v>
+        <v>57.922088623</v>
       </c>
       <c r="C184">
-        <v>3.0507130622899998</v>
+        <v>-174.79301452600001</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3127,10 +3136,10 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>1.20621919632</v>
+        <v>69.111274719199997</v>
       </c>
       <c r="C185">
-        <v>3.0657620429999999</v>
+        <v>175.65521240199999</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3138,10 +3147,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1.13737154007</v>
+        <v>65.166580200200002</v>
       </c>
       <c r="C186">
-        <v>3.05821871758</v>
+        <v>-175.22303772000001</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3149,10 +3158,10 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1.0960284471499999</v>
+        <v>-62.7978057861</v>
       </c>
       <c r="C187">
-        <v>2.9790744781499998</v>
+        <v>170.688354492</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3160,10 +3169,10 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>2.6700451374099998</v>
+        <v>-152.98231506299999</v>
       </c>
       <c r="C188">
-        <v>2.0686540603600001</v>
+        <v>-118.525146484</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3171,10 +3180,10 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1.1057053804400001</v>
+        <v>63.352245330800002</v>
       </c>
       <c r="C189">
-        <v>2.2248003482800001</v>
+        <v>127.471672058</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3182,10 +3191,10 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1.10447013378</v>
+        <v>63.281471252400003</v>
       </c>
       <c r="C190">
-        <v>3.0981843471500001</v>
+        <v>-177.512741089</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3193,10 +3202,10 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1.0560666322700001</v>
+        <v>60.5081596375</v>
       </c>
       <c r="C191">
-        <v>2.9287879467</v>
+        <v>-167.80718994099999</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3204,10 +3213,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0.992076158524</v>
+        <v>-56.841777801500001</v>
       </c>
       <c r="C192">
-        <v>3.0115926265700002</v>
+        <v>-172.55157470699999</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3215,10 +3224,10 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>2.57940173149</v>
+        <v>-147.788818359</v>
       </c>
       <c r="C193">
-        <v>2.7476067543</v>
+        <v>157.42628479000001</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3226,10 +3235,10 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.95019096136100001</v>
+        <v>-54.441932678199997</v>
       </c>
       <c r="C194">
-        <v>2.9138767719300001</v>
+        <v>166.952880859</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3237,10 +3246,10 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.79013884067499995</v>
+        <v>-45.271621704099999</v>
       </c>
       <c r="C195">
-        <v>2.5721406936600002</v>
+        <v>147.372802734</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3248,10 +3257,10 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.96662837266900004</v>
+        <v>55.383724212600001</v>
       </c>
       <c r="C196">
-        <v>2.4579963684099999</v>
+        <v>-140.83282470699999</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3259,10 +3268,10 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1.65296852589</v>
+        <v>-94.708122253400006</v>
       </c>
       <c r="C197">
-        <v>2.8967547416700001</v>
+        <v>165.971801758</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3270,10 +3279,10 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>2.7960059642799999</v>
+        <v>-160.19934082</v>
       </c>
       <c r="C198">
-        <v>2.8983035087600002</v>
+        <v>166.06056213400001</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3281,10 +3290,10 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.97022783756300002</v>
+        <v>55.589958190899999</v>
       </c>
       <c r="C199">
-        <v>3.04548215866</v>
+        <v>-174.49327087399999</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3292,10 +3301,10 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1.0940084457399999</v>
+        <v>62.6820602417</v>
       </c>
       <c r="C200">
-        <v>2.9201216697699999</v>
+        <v>-167.31065368700001</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3303,10 +3312,10 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.96632444858599997</v>
+        <v>55.366317748999997</v>
       </c>
       <c r="C201">
-        <v>2.8604581356000001</v>
+        <v>163.89218139600001</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3314,10 +3323,10 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.89830327034000002</v>
+        <v>-51.468986511200001</v>
       </c>
       <c r="C202">
-        <v>2.7985088825200002</v>
+        <v>-160.34274292000001</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3325,10 +3334,10 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.90023964643499998</v>
+        <v>-51.579940795900001</v>
       </c>
       <c r="C203">
-        <v>2.4854724407200002</v>
+        <v>142.407073975</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3336,10 +3345,10 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1.58606696129</v>
+        <v>-90.874946594199997</v>
       </c>
       <c r="C204">
-        <v>2.5029134750400002</v>
+        <v>-143.40637207</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3347,10 +3356,10 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1.0273708105099999</v>
+        <v>58.864009857200003</v>
       </c>
       <c r="C205">
-        <v>3.0625779628799998</v>
+        <v>175.47271728499999</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3358,10 +3367,10 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.78828400373499996</v>
+        <v>-45.165348053000002</v>
       </c>
       <c r="C206">
-        <v>2.9840831756599999</v>
+        <v>-170.975341797</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3369,10 +3378,10 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1.10930275917</v>
+        <v>63.558364868200002</v>
       </c>
       <c r="C207">
-        <v>3.0727930069</v>
+        <v>176.05807495100001</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3380,10 +3389,10 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1.0441265106199999</v>
+        <v>59.824043273900003</v>
       </c>
       <c r="C208">
-        <v>2.81132125854</v>
+        <v>161.076828003</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3391,10 +3400,10 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.85303384065599996</v>
+        <v>48.875240325900002</v>
       </c>
       <c r="C209">
-        <v>2.7637267112699999</v>
+        <v>158.34986877399999</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3402,10 +3411,10 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>2.3033647537199999</v>
+        <v>-131.97308349599999</v>
       </c>
       <c r="C210">
-        <v>2.5904290676100001</v>
+        <v>-148.42066955600001</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3413,10 +3422,10 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.83407098054899997</v>
+        <v>47.788742065400001</v>
       </c>
       <c r="C211">
-        <v>2.8909435272200001</v>
+        <v>165.63888549800001</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3424,10 +3433,10 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.98423349857300002</v>
+        <v>56.392429351799997</v>
       </c>
       <c r="C212">
-        <v>2.8660078048700002</v>
+        <v>164.21014404300001</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3435,10 +3444,10 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.90048664808300005</v>
+        <v>51.594085693399997</v>
       </c>
       <c r="C213">
-        <v>2.9984982013699999</v>
+        <v>171.80130004899999</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3446,10 +3455,10 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1.0743479728700001</v>
+        <v>61.555599212600001</v>
       </c>
       <c r="C214">
-        <v>2.6875894069699999</v>
+        <v>153.98753356899999</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3457,10 +3466,10 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.87607216835000001</v>
+        <v>50.195236206099999</v>
       </c>
       <c r="C215">
-        <v>2.1588907241799999</v>
+        <v>123.69532775899999</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3468,10 +3477,10 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.81793969869600003</v>
+        <v>46.864494323700001</v>
       </c>
       <c r="C216">
-        <v>1.8632689714399999</v>
+        <v>106.757446289</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3479,10 +3488,10 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.85011386871299999</v>
+        <v>-48.707931518599999</v>
       </c>
       <c r="C217">
-        <v>2.4577949047100001</v>
+        <v>140.82127380399999</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3490,10 +3499,10 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.70045500993700005</v>
+        <v>-40.133121490500002</v>
       </c>
       <c r="C218">
-        <v>2.41950893402</v>
+        <v>-138.62765502900001</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3501,10 +3510,10 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.849142789841</v>
+        <v>48.652301788300001</v>
       </c>
       <c r="C219">
-        <v>2.3461022376999998</v>
+        <v>134.42173767099999</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3512,10 +3521,10 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1.09694361687</v>
+        <v>62.850231170699999</v>
       </c>
       <c r="C220">
-        <v>2.9522936344100001</v>
+        <v>169.15397644000001</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3523,10 +3532,10 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1.0635055303600001</v>
+        <v>60.934371948200003</v>
       </c>
       <c r="C221">
-        <v>2.9454078674300002</v>
+        <v>-168.75946044899999</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3534,10 +3543,10 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.81635469198199995</v>
+        <v>46.773677825900002</v>
       </c>
       <c r="C222">
-        <v>2.7437744140600002</v>
+        <v>157.20669555699999</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3545,10 +3554,10 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>1.04809486866</v>
+        <v>60.051410675</v>
       </c>
       <c r="C223">
-        <v>2.9302773475600001</v>
+        <v>167.892501831</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3556,10 +3565,10 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.90885972976700002</v>
+        <v>52.073825836200001</v>
       </c>
       <c r="C224">
-        <v>3.0842378139500002</v>
+        <v>-176.71383667000001</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3567,10 +3576,10 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1.0756659507799999</v>
+        <v>61.631118774400001</v>
       </c>
       <c r="C225">
-        <v>2.6725225448600001</v>
+        <v>153.124267578</v>
       </c>
     </row>
   </sheetData>
@@ -3587,7 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
